--- a/Demo/Config/属性.xlsx
+++ b/Demo/Config/属性.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>一级属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,14 +37,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>攻速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>暴击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,38 +58,6 @@
   </si>
   <si>
     <t>破击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击强度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡强度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免伤率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免控率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -104,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,20 +391,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G13"/>
+  <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -447,15 +415,15 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -463,16 +431,10 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -480,33 +442,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
